--- a/Solution hints.xlsx
+++ b/Solution hints.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22266" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22272" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Leet code solutions</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>Use an object as HashMap</t>
+  </si>
+  <si>
+    <t>Add two numbers</t>
+  </si>
+  <si>
+    <t>traverse linkedlist and create a new linked list and add carry to the sum</t>
   </si>
 </sst>
 </file>
@@ -367,12 +373,12 @@
   <dimension ref="A1:Z36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="S8" sqref="S8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -402,7 +408,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -430,7 +436,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -458,7 +464,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -486,7 +492,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -514,7 +520,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>1</v>
       </c>
@@ -525,7 +531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>1</v>
       </c>
@@ -536,132 +542,138 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>27</v>
       </c>
